--- a/natmiOut/OldD0/LR-pairs_lrc2p/Spp1-Itgb3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Spp1-Itgb3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.9010888983583</v>
+        <v>282.7879796666667</v>
       </c>
       <c r="H2">
-        <v>50.9010888983583</v>
+        <v>848.363939</v>
       </c>
       <c r="I2">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401267</v>
       </c>
       <c r="J2">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401266</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N2">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O2">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P2">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q2">
-        <v>311.9790010332677</v>
+        <v>2040.063780518416</v>
       </c>
       <c r="R2">
-        <v>311.9790010332677</v>
+        <v>18360.57402466575</v>
       </c>
       <c r="S2">
-        <v>0.372826270785541</v>
+        <v>0.4536212775581963</v>
       </c>
       <c r="T2">
-        <v>0.372826270785541</v>
+        <v>0.4536212775581963</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.9010888983583</v>
+        <v>282.7879796666667</v>
       </c>
       <c r="H3">
-        <v>50.9010888983583</v>
+        <v>848.363939</v>
       </c>
       <c r="I3">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401267</v>
       </c>
       <c r="J3">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401266</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N3">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P3">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q3">
-        <v>360.4366668724809</v>
+        <v>2010.721699748203</v>
       </c>
       <c r="R3">
-        <v>360.4366668724809</v>
+        <v>18096.49529773383</v>
       </c>
       <c r="S3">
-        <v>0.43073494664504</v>
+        <v>0.4470968775407529</v>
       </c>
       <c r="T3">
-        <v>0.43073494664504</v>
+        <v>0.4470968775407528</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.9010888983583</v>
+        <v>282.7879796666667</v>
       </c>
       <c r="H4">
-        <v>50.9010888983583</v>
+        <v>848.363939</v>
       </c>
       <c r="I4">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401267</v>
       </c>
       <c r="J4">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401266</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N4">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P4">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q4">
-        <v>52.39937640569716</v>
+        <v>300.1218459309745</v>
       </c>
       <c r="R4">
-        <v>52.39937640569716</v>
+        <v>2701.096613378771</v>
       </c>
       <c r="S4">
-        <v>0.06261916357229681</v>
+        <v>0.06673401904117762</v>
       </c>
       <c r="T4">
-        <v>0.06261916357229681</v>
+        <v>0.06673401904117762</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.08930503497068</v>
+        <v>7.714696666666668</v>
       </c>
       <c r="H5">
-        <v>6.08930503497068</v>
+        <v>23.14409</v>
       </c>
       <c r="I5">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="J5">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N5">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O5">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P5">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q5">
-        <v>37.3220955172586</v>
+        <v>55.65467551309779</v>
       </c>
       <c r="R5">
-        <v>37.3220955172586</v>
+        <v>500.89207961788</v>
       </c>
       <c r="S5">
-        <v>0.04460126368606938</v>
+        <v>0.01237517436926545</v>
       </c>
       <c r="T5">
-        <v>0.04460126368606938</v>
+        <v>0.01237517436926545</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.08930503497068</v>
+        <v>7.714696666666668</v>
       </c>
       <c r="H6">
-        <v>6.08930503497068</v>
+        <v>23.14409</v>
       </c>
       <c r="I6">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="J6">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N6">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P6">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q6">
-        <v>43.1190934786748</v>
+        <v>54.85419858696445</v>
       </c>
       <c r="R6">
-        <v>43.1190934786748</v>
+        <v>493.6877872826801</v>
       </c>
       <c r="S6">
-        <v>0.05152888741891068</v>
+        <v>0.01219718318616813</v>
       </c>
       <c r="T6">
-        <v>0.05152888741891068</v>
+        <v>0.01219718318616813</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.08930503497068</v>
+        <v>7.714696666666668</v>
       </c>
       <c r="H7">
-        <v>6.08930503497068</v>
+        <v>23.14409</v>
       </c>
       <c r="I7">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="J7">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N7">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P7">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q7">
-        <v>6.268545398187476</v>
+        <v>8.187579285112221</v>
       </c>
       <c r="R7">
-        <v>6.268545398187476</v>
+        <v>73.68821356601001</v>
       </c>
       <c r="S7">
-        <v>0.007491140096980081</v>
+        <v>0.001820560813288799</v>
       </c>
       <c r="T7">
-        <v>0.007491140096980081</v>
+        <v>0.001820560813288798</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.77460469135031</v>
+        <v>1.799090333333333</v>
       </c>
       <c r="H8">
-        <v>1.77460469135031</v>
+        <v>5.397271</v>
       </c>
       <c r="I8">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="J8">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N8">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O8">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P8">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q8">
-        <v>10.87676925619319</v>
+        <v>12.97883676399689</v>
       </c>
       <c r="R8">
-        <v>10.87676925619319</v>
+        <v>116.809530875972</v>
       </c>
       <c r="S8">
-        <v>0.01299813547242211</v>
+        <v>0.00288592767065716</v>
       </c>
       <c r="T8">
-        <v>0.01299813547242211</v>
+        <v>0.00288592767065716</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.77460469135031</v>
+        <v>1.799090333333333</v>
       </c>
       <c r="H9">
-        <v>1.77460469135031</v>
+        <v>5.397271</v>
       </c>
       <c r="I9">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="J9">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N9">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P9">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q9">
-        <v>12.56618696790204</v>
+        <v>12.79216315101022</v>
       </c>
       <c r="R9">
-        <v>12.56618696790204</v>
+        <v>115.129468359092</v>
       </c>
       <c r="S9">
-        <v>0.01501705117882983</v>
+        <v>0.002844419594479318</v>
       </c>
       <c r="T9">
-        <v>0.01501705117882983</v>
+        <v>0.002844419594479318</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.77460469135031</v>
+        <v>1.799090333333333</v>
       </c>
       <c r="H10">
-        <v>1.77460469135031</v>
+        <v>5.397271</v>
       </c>
       <c r="I10">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="J10">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N10">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P10">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q10">
-        <v>1.826840666985811</v>
+        <v>1.909367974102111</v>
       </c>
       <c r="R10">
-        <v>1.826840666985811</v>
+        <v>17.184311766919</v>
       </c>
       <c r="S10">
-        <v>0.002183141143910075</v>
+        <v>0.0004245602260145051</v>
       </c>
       <c r="T10">
-        <v>0.002183141143910075</v>
+        <v>0.0004245602260145051</v>
       </c>
     </row>
   </sheetData>
